--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt2-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt2-Fzd4.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>13.57958433333333</v>
+        <v>28.22405966666667</v>
       </c>
       <c r="N2">
-        <v>40.738753</v>
+        <v>84.672179</v>
       </c>
       <c r="O2">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="P2">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="Q2">
-        <v>11.312133239275</v>
+        <v>23.511347303825</v>
       </c>
       <c r="R2">
-        <v>101.809199153475</v>
+        <v>211.602125734425</v>
       </c>
       <c r="S2">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="T2">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,13 +617,13 @@
         <v>19.768727</v>
       </c>
       <c r="N3">
-        <v>59.30618100000001</v>
+        <v>59.306181</v>
       </c>
       <c r="O3">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="P3">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="Q3">
         <v>16.467843809175</v>
@@ -632,10 +632,10 @@
         <v>148.210594282575</v>
       </c>
       <c r="S3">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="T3">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,16 +676,16 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.95900466666666</v>
+        <v>25.95900466666667</v>
       </c>
       <c r="N4">
-        <v>77.87701399999999</v>
+        <v>77.877014</v>
       </c>
       <c r="O4">
-        <v>0.437703245020676</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="P4">
-        <v>0.4377032450206761</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="Q4">
         <v>21.62449986245</v>
@@ -694,10 +694,10 @@
         <v>194.62049876205</v>
       </c>
       <c r="S4">
-        <v>0.437703245020676</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="T4">
-        <v>0.4377032450206761</v>
+        <v>0.351026042758829</v>
       </c>
     </row>
   </sheetData>
